--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Adam12</t>
+  </si>
+  <si>
+    <t>Itga9</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam12</t>
-  </si>
-  <si>
-    <t>Itga9</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H2">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I2">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J2">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N2">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q2">
-        <v>32.310024056962</v>
+        <v>56.59375589855088</v>
       </c>
       <c r="R2">
-        <v>290.790216512658</v>
+        <v>509.343803086958</v>
       </c>
       <c r="S2">
-        <v>0.01901461118120237</v>
+        <v>0.01499484088211277</v>
       </c>
       <c r="T2">
-        <v>0.01901461118120238</v>
+        <v>0.01499484088211277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H3">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I3">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J3">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q3">
-        <v>32.405436486568</v>
+        <v>39.52343618140977</v>
       </c>
       <c r="R3">
-        <v>291.648928379112</v>
+        <v>355.710925632688</v>
       </c>
       <c r="S3">
-        <v>0.01907076187448609</v>
+        <v>0.01047196156616552</v>
       </c>
       <c r="T3">
-        <v>0.01907076187448609</v>
+        <v>0.01047196156616553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H4">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I4">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J4">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N4">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q4">
-        <v>22.901358244561</v>
+        <v>112.5559149138004</v>
       </c>
       <c r="R4">
-        <v>206.112224201049</v>
+        <v>1013.003234224204</v>
       </c>
       <c r="S4">
-        <v>0.01347756416937486</v>
+        <v>0.02982233654006831</v>
       </c>
       <c r="T4">
-        <v>0.01347756416937486</v>
+        <v>0.02982233654006832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H5">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I5">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J5">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N5">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q5">
-        <v>1.168930398655</v>
+        <v>1.590569937742444</v>
       </c>
       <c r="R5">
-        <v>10.520373587895</v>
+        <v>14.315129439682</v>
       </c>
       <c r="S5">
-        <v>0.0006879214013931817</v>
+        <v>0.0004214306463609472</v>
       </c>
       <c r="T5">
-        <v>0.0006879214013931819</v>
+        <v>0.0004214306463609472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H6">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I6">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J6">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N6">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q6">
-        <v>35.219117701778</v>
+        <v>116.7825144174775</v>
       </c>
       <c r="R6">
-        <v>316.972059316002</v>
+        <v>1051.042629757298</v>
       </c>
       <c r="S6">
-        <v>0.02072662737928267</v>
+        <v>0.03094219836976671</v>
       </c>
       <c r="T6">
-        <v>0.02072662737928268</v>
+        <v>0.03094219836976671</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>294.289253</v>
       </c>
       <c r="I7">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J7">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N7">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q7">
-        <v>399.8893272444372</v>
+        <v>574.2939345510214</v>
       </c>
       <c r="R7">
-        <v>3599.003945199935</v>
+        <v>5168.645410959191</v>
       </c>
       <c r="S7">
-        <v>0.2353368743910655</v>
+        <v>0.1521624785531428</v>
       </c>
       <c r="T7">
-        <v>0.2353368743910655</v>
+        <v>0.1521624785531428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>294.289253</v>
       </c>
       <c r="I8">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J8">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q8">
         <v>401.0702119203085</v>
@@ -948,10 +948,10 @@
         <v>3609.631907282776</v>
       </c>
       <c r="S8">
-        <v>0.236031830944547</v>
+        <v>0.1062658576872129</v>
       </c>
       <c r="T8">
-        <v>0.2360318309445471</v>
+        <v>0.1062658576872129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>294.289253</v>
       </c>
       <c r="I9">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J9">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N9">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q9">
-        <v>283.4417184356142</v>
+        <v>1142.178641557373</v>
       </c>
       <c r="R9">
-        <v>2550.975465920527</v>
+        <v>10279.60777401636</v>
       </c>
       <c r="S9">
-        <v>0.1668068726622856</v>
+        <v>0.3026267954330818</v>
       </c>
       <c r="T9">
-        <v>0.1668068726622856</v>
+        <v>0.3026267954330818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>294.289253</v>
       </c>
       <c r="I10">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J10">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N10">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q10">
-        <v>14.46742317150945</v>
+        <v>16.14055567123211</v>
       </c>
       <c r="R10">
-        <v>130.206808543585</v>
+        <v>145.265001041089</v>
       </c>
       <c r="S10">
-        <v>0.008514151085594576</v>
+        <v>0.004276532988424711</v>
       </c>
       <c r="T10">
-        <v>0.008514151085594576</v>
+        <v>0.004276532988424711</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>294.289253</v>
       </c>
       <c r="I11">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J11">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N11">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q11">
-        <v>435.8941132039163</v>
+        <v>1185.068716976458</v>
       </c>
       <c r="R11">
-        <v>3923.047018835246</v>
+        <v>10665.61845278812</v>
       </c>
       <c r="S11">
-        <v>0.2565258714798619</v>
+        <v>0.3139907674140872</v>
       </c>
       <c r="T11">
-        <v>0.2565258714798619</v>
+        <v>0.3139907674140873</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H12">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I12">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J12">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N12">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O12">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P12">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q12">
-        <v>0.02183641238444444</v>
+        <v>0.3412675578962222</v>
       </c>
       <c r="R12">
-        <v>0.19652771146</v>
+        <v>3.071408021066</v>
       </c>
       <c r="S12">
-        <v>1.285083819035832E-05</v>
+        <v>9.042080080449457E-05</v>
       </c>
       <c r="T12">
-        <v>1.285083819035832E-05</v>
+        <v>9.042080080449458E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H13">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I13">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J13">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.265592</v>
       </c>
       <c r="O13">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P13">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q13">
-        <v>0.02190089593777777</v>
+        <v>0.2383313553084444</v>
       </c>
       <c r="R13">
-        <v>0.19710806344</v>
+        <v>2.144982197776</v>
       </c>
       <c r="S13">
-        <v>1.288878708485787E-05</v>
+        <v>6.314726233181343E-05</v>
       </c>
       <c r="T13">
-        <v>1.288878708485787E-05</v>
+        <v>6.314726233181344E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H14">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I14">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J14">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N14">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O14">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P14">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q14">
-        <v>0.01547765801444444</v>
+        <v>0.678726506123111</v>
       </c>
       <c r="R14">
-        <v>0.13929892213</v>
+        <v>6.108538555108</v>
       </c>
       <c r="S14">
-        <v>9.108679356642794E-06</v>
+        <v>0.0001798324885881798</v>
       </c>
       <c r="T14">
-        <v>9.108679356642796E-06</v>
+        <v>0.0001798324885881799</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H15">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I15">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J15">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N15">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O15">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P15">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q15">
-        <v>0.0007900101277777777</v>
+        <v>0.009591339357111111</v>
       </c>
       <c r="R15">
-        <v>0.007110091149999999</v>
+        <v>0.08632205421400001</v>
       </c>
       <c r="S15">
-        <v>4.649249218268422E-07</v>
+        <v>2.541280486208364E-06</v>
       </c>
       <c r="T15">
-        <v>4.649249218268422E-07</v>
+        <v>2.541280486208365E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H16">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I16">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J16">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N16">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O16">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P16">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q16">
-        <v>0.02380249474888888</v>
+        <v>0.7042134395828888</v>
       </c>
       <c r="R16">
-        <v>0.21422245274</v>
+        <v>6.337920956246</v>
       </c>
       <c r="S16">
-        <v>1.400788752106207E-05</v>
+        <v>0.0001865853980873734</v>
       </c>
       <c r="T16">
-        <v>1.400788752106207E-05</v>
+        <v>0.0001865853980873734</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H17">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I17">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J17">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N17">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O17">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P17">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q17">
-        <v>10.49685991019556</v>
+        <v>21.88065639779445</v>
       </c>
       <c r="R17">
-        <v>94.47173919176001</v>
+        <v>196.92590758015</v>
       </c>
       <c r="S17">
-        <v>0.00617745469529949</v>
+        <v>0.005797405665551729</v>
       </c>
       <c r="T17">
-        <v>0.00617745469529949</v>
+        <v>0.005797405665551729</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H18">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I18">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J18">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.265592</v>
       </c>
       <c r="O18">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P18">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q18">
-        <v>10.52785743918222</v>
+        <v>15.28081522448889</v>
       </c>
       <c r="R18">
-        <v>94.75071695264</v>
+        <v>137.5273370204</v>
       </c>
       <c r="S18">
-        <v>0.00619569689655011</v>
+        <v>0.004048739815942209</v>
       </c>
       <c r="T18">
-        <v>0.006195696896550111</v>
+        <v>0.00404873981594221</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H19">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I19">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J19">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N19">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O19">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P19">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q19">
-        <v>7.440178590475556</v>
+        <v>43.51712058452222</v>
       </c>
       <c r="R19">
-        <v>66.96160731428</v>
+        <v>391.6540852607</v>
       </c>
       <c r="S19">
-        <v>0.004378582410436657</v>
+        <v>0.01153011120135487</v>
       </c>
       <c r="T19">
-        <v>0.004378582410436658</v>
+        <v>0.01153011120135487</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H20">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I20">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J20">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N20">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O20">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P20">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q20">
-        <v>0.3797613588222222</v>
+        <v>0.6149567868722222</v>
       </c>
       <c r="R20">
-        <v>3.4178522294</v>
+        <v>5.534611081850001</v>
       </c>
       <c r="S20">
-        <v>0.0002234914640397393</v>
+        <v>0.0001629363349740217</v>
       </c>
       <c r="T20">
-        <v>0.0002234914640397393</v>
+        <v>0.0001629363349740218</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H21">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I21">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J21">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N21">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O21">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P21">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q21">
-        <v>11.44196438927111</v>
+        <v>45.15123675162778</v>
       </c>
       <c r="R21">
-        <v>102.97767950344</v>
+        <v>406.36113076465</v>
       </c>
       <c r="S21">
-        <v>0.00673365342061001</v>
+        <v>0.01196307967145535</v>
       </c>
       <c r="T21">
-        <v>0.00673365342061001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.015872</v>
-      </c>
-      <c r="I22">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J22">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>4.076492666666667</v>
-      </c>
-      <c r="N22">
-        <v>12.229478</v>
-      </c>
-      <c r="O22">
-        <v>0.2605544836075472</v>
-      </c>
-      <c r="P22">
-        <v>0.2605544836075472</v>
-      </c>
-      <c r="Q22">
-        <v>0.02156736386844444</v>
-      </c>
-      <c r="R22">
-        <v>0.194106274816</v>
-      </c>
-      <c r="S22">
-        <v>1.269250178950636E-05</v>
-      </c>
-      <c r="T22">
-        <v>1.269250178950637E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.015872</v>
-      </c>
-      <c r="I23">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J23">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.088530666666666</v>
-      </c>
-      <c r="N23">
-        <v>12.265592</v>
-      </c>
-      <c r="O23">
-        <v>0.2613239084857802</v>
-      </c>
-      <c r="P23">
-        <v>0.2613239084857802</v>
-      </c>
-      <c r="Q23">
-        <v>0.02163105291377778</v>
-      </c>
-      <c r="R23">
-        <v>0.194679476224</v>
-      </c>
-      <c r="S23">
-        <v>1.272998311206373E-05</v>
-      </c>
-      <c r="T23">
-        <v>1.272998311206373E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.015872</v>
-      </c>
-      <c r="I24">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J24">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.889419666666667</v>
-      </c>
-      <c r="N24">
-        <v>8.668259000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.1846811243719048</v>
-      </c>
-      <c r="P24">
-        <v>0.1846811243719048</v>
-      </c>
-      <c r="Q24">
-        <v>0.01528695631644445</v>
-      </c>
-      <c r="R24">
-        <v>0.137582606848</v>
-      </c>
-      <c r="S24">
-        <v>8.996450451066238E-06</v>
-      </c>
-      <c r="T24">
-        <v>8.996450451066241E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.015872</v>
-      </c>
-      <c r="I25">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J25">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.1474816666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.442445</v>
-      </c>
-      <c r="O25">
-        <v>0.009426488072486925</v>
-      </c>
-      <c r="P25">
-        <v>0.009426488072486925</v>
-      </c>
-      <c r="Q25">
-        <v>0.0007802763377777779</v>
-      </c>
-      <c r="R25">
-        <v>0.007022487040000001</v>
-      </c>
-      <c r="S25">
-        <v>4.591965376002265E-07</v>
-      </c>
-      <c r="T25">
-        <v>4.591965376002267E-07</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.015872</v>
-      </c>
-      <c r="I26">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J26">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>4.443527333333333</v>
-      </c>
-      <c r="N26">
-        <v>13.330582</v>
-      </c>
-      <c r="O26">
-        <v>0.2840139954622809</v>
-      </c>
-      <c r="P26">
-        <v>0.2840139954622809</v>
-      </c>
-      <c r="Q26">
-        <v>0.02350922194488889</v>
-      </c>
-      <c r="R26">
-        <v>0.211582997504</v>
-      </c>
-      <c r="S26">
-        <v>1.383529500524563E-05</v>
-      </c>
-      <c r="T26">
-        <v>1.383529500524563E-05</v>
+        <v>0.01196307967145536</v>
       </c>
     </row>
   </sheetData>
